--- a/teaching/traditional_assets/database/data/saudi_arabia/saudi_arabia_steel.xlsx
+++ b/teaching/traditional_assets/database/data/saudi_arabia/saudi_arabia_steel.xlsx
@@ -591,121 +591,121 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.05195</v>
+        <v>-0.0509</v>
       </c>
       <c r="E2">
-        <v>-0.391</v>
+        <v>-0.134</v>
       </c>
       <c r="G2">
-        <v>0.01561430568274932</v>
+        <v>0.05091278399117308</v>
       </c>
       <c r="H2">
-        <v>0.01561430568274932</v>
+        <v>0.05091278399117308</v>
       </c>
       <c r="I2">
-        <v>-0.02841038880148888</v>
+        <v>0.005958172425898991</v>
       </c>
       <c r="J2">
-        <v>-0.02604285640136481</v>
+        <v>0.005556456391203659</v>
       </c>
       <c r="K2">
-        <v>-130.26</v>
+        <v>-39.42</v>
       </c>
       <c r="L2">
-        <v>-0.06278498096110281</v>
+        <v>-0.01977029941321029</v>
       </c>
       <c r="M2">
-        <v>7.69</v>
+        <v>23.4</v>
       </c>
       <c r="N2">
-        <v>0.006013920387893954</v>
+        <v>0.012464046021093</v>
       </c>
       <c r="O2">
-        <v>-0.05903577460463688</v>
+        <v>-0.593607305936073</v>
       </c>
       <c r="P2">
-        <v>7.69</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.006013920387893954</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>-0.05903577460463688</v>
+        <v>-0</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>23.4</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U2">
-        <v>193.83</v>
+        <v>261.49</v>
       </c>
       <c r="V2">
-        <v>0.1515836396340033</v>
+        <v>0.1392830510280175</v>
       </c>
       <c r="W2">
-        <v>-0.1203707998350855</v>
+        <v>-0.06989525029750179</v>
       </c>
       <c r="X2">
-        <v>0.08735889913733494</v>
+        <v>0.06745754649294133</v>
       </c>
       <c r="Y2">
-        <v>-0.2077296989724205</v>
+        <v>-0.1373527967904431</v>
       </c>
       <c r="Z2">
-        <v>1.027357322584567</v>
+        <v>0.9481938711456889</v>
       </c>
       <c r="AA2">
-        <v>-0.02724405160246939</v>
+        <v>-0.009202690449714345</v>
       </c>
       <c r="AB2">
-        <v>0.06757815766058059</v>
+        <v>0.05985323818331078</v>
       </c>
       <c r="AC2">
-        <v>-0.0938419810444113</v>
+        <v>-0.06948120837974261</v>
       </c>
       <c r="AD2">
-        <v>1276.4</v>
+        <v>1137.361</v>
       </c>
       <c r="AE2">
-        <v>24.91516823224485</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>1301.315168232245</v>
+        <v>1137.361</v>
       </c>
       <c r="AG2">
-        <v>1107.485168232245</v>
+        <v>875.8710000000001</v>
       </c>
       <c r="AH2">
-        <v>0.5043827587741936</v>
+        <v>0.3772640683623014</v>
       </c>
       <c r="AI2">
-        <v>0.5430710837175201</v>
+        <v>0.5262244483915459</v>
       </c>
       <c r="AJ2">
-        <v>0.4641237331353886</v>
+        <v>0.3181201559890036</v>
       </c>
       <c r="AK2">
-        <v>0.5028571678591413</v>
+        <v>0.4610160374046449</v>
       </c>
       <c r="AL2">
-        <v>49.22</v>
+        <v>32.09</v>
       </c>
       <c r="AM2">
-        <v>48.767</v>
+        <v>32.09</v>
       </c>
       <c r="AN2">
-        <v>83.7862675594066</v>
+        <v>14.35880570635021</v>
       </c>
       <c r="AO2">
-        <v>-1.227346607070297</v>
+        <v>0.3702087877843565</v>
       </c>
       <c r="AP2">
-        <v>72.69825182041781</v>
+        <v>11.05758111349577</v>
       </c>
       <c r="AQ2">
-        <v>-1.238747513687535</v>
+        <v>0.3702087877843565</v>
       </c>
     </row>
     <row r="3">
@@ -725,103 +725,103 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.08</v>
+        <v>-0.0228</v>
       </c>
       <c r="E3">
-        <v>-0.391</v>
+        <v>-0.064</v>
       </c>
       <c r="G3">
-        <v>0.04789964994165695</v>
+        <v>0.05765595463137996</v>
       </c>
       <c r="H3">
-        <v>0.04789964994165695</v>
+        <v>0.05765595463137996</v>
       </c>
       <c r="I3">
-        <v>0.02567094515752626</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="J3">
-        <v>0.01283547257876313</v>
+        <v>0.07067868504772004</v>
       </c>
       <c r="K3">
-        <v>2.34</v>
+        <v>13.3</v>
       </c>
       <c r="L3">
-        <v>0.01365227537922987</v>
+        <v>0.06285444234404537</v>
       </c>
       <c r="M3">
-        <v>5.85</v>
+        <v>23.4</v>
       </c>
       <c r="N3">
-        <v>0.02881773399014778</v>
+        <v>0.07186732186732185</v>
       </c>
       <c r="O3">
-        <v>2.5</v>
+        <v>1.759398496240601</v>
       </c>
       <c r="P3">
-        <v>5.85</v>
+        <v>-0</v>
       </c>
       <c r="Q3">
-        <v>0.02881773399014778</v>
+        <v>-0</v>
       </c>
       <c r="R3">
-        <v>2.5</v>
+        <v>-0</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>23.4</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U3">
-        <v>70.5</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="V3">
-        <v>0.3472906403940887</v>
+        <v>0.2045454545454545</v>
       </c>
       <c r="W3">
-        <v>0.01699346405228758</v>
+        <v>0.09729334308705195</v>
       </c>
       <c r="X3">
-        <v>0.06767856487296021</v>
+        <v>0.05982182809544657</v>
       </c>
       <c r="Y3">
-        <v>-0.05068510082067263</v>
+        <v>0.03747151499160538</v>
       </c>
       <c r="Z3">
-        <v>2.243455497382199</v>
+        <v>3.009957325746799</v>
       </c>
       <c r="AA3">
-        <v>0.02879581151832461</v>
+        <v>0.2127398258335357</v>
       </c>
       <c r="AB3">
-        <v>0.06767856487296021</v>
+        <v>0.05970562628505031</v>
       </c>
       <c r="AC3">
-        <v>-0.0388827533546356</v>
+        <v>0.1530341995484854</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>0.961</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>0.961</v>
       </c>
       <c r="AG3">
-        <v>-70.5</v>
+        <v>-65.639</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>0.002942788636732494</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <v>0.008105532173311629</v>
       </c>
       <c r="AJ3">
-        <v>-0.5320754716981132</v>
+        <v>-0.2524955666426887</v>
       </c>
       <c r="AK3">
-        <v>-1.064954682779456</v>
+        <v>-1.263235888454803</v>
       </c>
       <c r="AL3">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="AN3">
-        <v>0</v>
+        <v>0.04368181818181818</v>
       </c>
       <c r="AP3">
-        <v>-8.618581907090466</v>
+        <v>-2.983590909090909</v>
       </c>
     </row>
     <row r="4">
@@ -853,25 +853,28 @@
         </is>
       </c>
       <c r="D4">
-        <v>-0.138</v>
+        <v>-0.0156</v>
+      </c>
+      <c r="E4">
+        <v>-0.204</v>
       </c>
       <c r="G4">
-        <v>0.02643723113023074</v>
+        <v>0.08274753966659973</v>
       </c>
       <c r="H4">
-        <v>0.02643723113023074</v>
+        <v>0.08274753966659973</v>
       </c>
       <c r="I4">
-        <v>-0.01353148220570982</v>
+        <v>0.05985137577826873</v>
       </c>
       <c r="J4">
-        <v>-0.01353148220570982</v>
+        <v>0.04684321549351206</v>
       </c>
       <c r="K4">
-        <v>-10.6</v>
+        <v>13.5</v>
       </c>
       <c r="L4">
-        <v>-0.04145482987876418</v>
+        <v>0.02711387828881302</v>
       </c>
       <c r="M4">
         <v>-0</v>
@@ -880,7 +883,7 @@
         <v>-0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P4">
         <v>-0</v>
@@ -889,79 +892,73 @@
         <v>-0</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="U4">
-        <v>7.76</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0.0303243454474404</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>-0.06279620853080568</v>
+        <v>0.08549715009499682</v>
       </c>
       <c r="X4">
-        <v>0.09600414134738387</v>
+        <v>0.05970281800183537</v>
       </c>
       <c r="Y4">
-        <v>-0.1588003498781896</v>
+        <v>0.02579433209316145</v>
       </c>
       <c r="Z4">
-        <v>1.27977977977978</v>
+        <v>1.477272727272727</v>
       </c>
       <c r="AA4">
-        <v>-0.01731731731731732</v>
+        <v>0.06920020470632463</v>
       </c>
       <c r="AB4">
-        <v>0.07030015955166097</v>
+        <v>0.05970281800183537</v>
       </c>
       <c r="AC4">
-        <v>-0.08761747686897828</v>
+        <v>0.009497386704489255</v>
       </c>
       <c r="AD4">
-        <v>186.9</v>
+        <v>0</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>186.9</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>179.14</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.4220867208672087</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.4935304990757856</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0.4117782272894447</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>0.482935245592279</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>5.18</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>4.726999999999999</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>27.64792899408284</v>
-      </c>
-      <c r="AO4">
-        <v>-0.667953667953668</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>26.5</v>
-      </c>
-      <c r="AQ4">
-        <v>-0.7319653056907131</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -981,25 +978,25 @@
         </is>
       </c>
       <c r="D5">
-        <v>0.162</v>
+        <v>0.0225</v>
       </c>
       <c r="G5">
-        <v>-0.08046511627906977</v>
+        <v>0.2149046793760832</v>
       </c>
       <c r="H5">
-        <v>-0.08046511627906977</v>
+        <v>0.2149046793760832</v>
       </c>
       <c r="I5">
-        <v>-0.03325581395348837</v>
+        <v>-0.009358752166377816</v>
       </c>
       <c r="J5">
-        <v>-0.03325581395348837</v>
+        <v>-0.009358752166377816</v>
       </c>
       <c r="K5">
-        <v>-17</v>
+        <v>-9.550000000000001</v>
       </c>
       <c r="L5">
-        <v>-0.07906976744186046</v>
+        <v>-0.08275563258232235</v>
       </c>
       <c r="M5">
         <v>-0</v>
@@ -1023,73 +1020,73 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>30.6</v>
+        <v>2.89</v>
       </c>
       <c r="V5">
-        <v>0.224834680382072</v>
+        <v>0.01510716152639833</v>
       </c>
       <c r="W5">
-        <v>-0.1084183673469388</v>
+        <v>-0.06831187410586552</v>
       </c>
       <c r="X5">
-        <v>0.1228180346917276</v>
+        <v>0.09924518562188478</v>
       </c>
       <c r="Y5">
-        <v>-0.2312364020386664</v>
+        <v>-0.1675570597277503</v>
       </c>
       <c r="Z5">
-        <v>0.7767341040462428</v>
+        <v>0.3812355467459531</v>
       </c>
       <c r="AA5">
-        <v>-0.02583092485549133</v>
+        <v>-0.00356788899900892</v>
       </c>
       <c r="AB5">
-        <v>0.06672223885204769</v>
+        <v>0.06017530521805391</v>
       </c>
       <c r="AC5">
-        <v>-0.09255316370753902</v>
+        <v>-0.06374319421706283</v>
       </c>
       <c r="AD5">
-        <v>193.5</v>
+        <v>187.6</v>
       </c>
       <c r="AE5">
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>193.5</v>
+        <v>187.6</v>
       </c>
       <c r="AG5">
-        <v>162.9</v>
+        <v>184.71</v>
       </c>
       <c r="AH5">
-        <v>0.5870752427184466</v>
+        <v>0.4951174452362101</v>
       </c>
       <c r="AI5">
-        <v>0.5805580558055805</v>
+        <v>0.590122680088078</v>
       </c>
       <c r="AJ5">
-        <v>0.5448160535117057</v>
+        <v>0.491236935187894</v>
       </c>
       <c r="AK5">
-        <v>0.5381565906838454</v>
+        <v>0.5863623377035651</v>
       </c>
       <c r="AL5">
-        <v>8.82</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="AM5">
-        <v>8.82</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="AN5">
-        <v>-542.0168067226891</v>
+        <v>28.77300613496933</v>
       </c>
       <c r="AO5">
-        <v>-0.8106575963718821</v>
+        <v>-0.1315468940316687</v>
       </c>
       <c r="AP5">
-        <v>-456.3025210084034</v>
+        <v>28.329754601227</v>
       </c>
       <c r="AQ5">
-        <v>-0.8106575963718821</v>
+        <v>-0.1315468940316687</v>
       </c>
     </row>
     <row r="6">
@@ -1109,25 +1106,25 @@
         </is>
       </c>
       <c r="D6">
-        <v>-0.039</v>
+        <v>-0.079</v>
       </c>
       <c r="G6">
-        <v>0.02316403568977351</v>
+        <v>0.0203997949769349</v>
       </c>
       <c r="H6">
-        <v>0.02316403568977351</v>
+        <v>0.0203997949769349</v>
       </c>
       <c r="I6">
-        <v>-0.0267956705957867</v>
+        <v>-0.01619682214249103</v>
       </c>
       <c r="J6">
-        <v>-0.0267956705957867</v>
+        <v>-0.01619682214249103</v>
       </c>
       <c r="K6">
-        <v>-58.1</v>
+        <v>-37.2</v>
       </c>
       <c r="L6">
-        <v>-0.04984557309540152</v>
+        <v>-0.03813429010763711</v>
       </c>
       <c r="M6">
         <v>-0</v>
@@ -1151,73 +1148,73 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>74.40000000000001</v>
+        <v>167.6</v>
       </c>
       <c r="V6">
-        <v>0.2561101549053357</v>
+        <v>0.5048192771084338</v>
       </c>
       <c r="W6">
-        <v>-0.1415347137637028</v>
+        <v>-0.1080453093232646</v>
       </c>
       <c r="X6">
-        <v>0.177887971101558</v>
+        <v>0.1591117494102745</v>
       </c>
       <c r="Y6">
-        <v>-0.3194226848652608</v>
+        <v>-0.2671570587335391</v>
       </c>
       <c r="Z6">
-        <v>1.069470467141563</v>
+        <v>0.9160742625860434</v>
       </c>
       <c r="AA6">
-        <v>-0.02865717834944745</v>
+        <v>-0.01483749190041977</v>
       </c>
       <c r="AB6">
-        <v>0.06647362003183611</v>
+        <v>0.06038173064200262</v>
       </c>
       <c r="AC6">
-        <v>-0.09513079838128356</v>
+        <v>-0.07521922254242239</v>
       </c>
       <c r="AD6">
-        <v>800.6</v>
+        <v>818.5</v>
       </c>
       <c r="AE6">
-        <v>24.91516823224485</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>825.5151682322448</v>
+        <v>818.5</v>
       </c>
       <c r="AG6">
-        <v>751.1151682322449</v>
+        <v>650.9</v>
       </c>
       <c r="AH6">
-        <v>0.7396988784120662</v>
+        <v>0.7114298131247284</v>
       </c>
       <c r="AI6">
-        <v>0.6745974795954911</v>
+        <v>0.6948217317487266</v>
       </c>
       <c r="AJ6">
-        <v>0.7211062119102818</v>
+        <v>0.6622240309288839</v>
       </c>
       <c r="AK6">
-        <v>0.6535328071824988</v>
+        <v>0.644200316706255</v>
       </c>
       <c r="AL6">
-        <v>30.1</v>
+        <v>19.6</v>
       </c>
       <c r="AM6">
-        <v>30.1</v>
+        <v>19.6</v>
       </c>
       <c r="AN6">
-        <v>144.4865547735066</v>
+        <v>63.44961240310077</v>
       </c>
       <c r="AO6">
-        <v>-1.086378737541528</v>
+        <v>-0.8061224489795918</v>
       </c>
       <c r="AP6">
-        <v>135.5558867049711</v>
+        <v>50.45736434108527</v>
       </c>
       <c r="AQ6">
-        <v>-1.086378737541528</v>
+        <v>-0.8061224489795918</v>
       </c>
     </row>
     <row r="7">
@@ -1237,25 +1234,25 @@
         </is>
       </c>
       <c r="D7">
-        <v>-0.0455</v>
+        <v>-0.0978</v>
       </c>
       <c r="G7">
-        <v>-0.004467629748528624</v>
+        <v>0.0207380073800738</v>
       </c>
       <c r="H7">
-        <v>-0.004467629748528624</v>
+        <v>0.0207380073800738</v>
       </c>
       <c r="I7">
-        <v>-0.05671482075976458</v>
+        <v>-0.0929889298892989</v>
       </c>
       <c r="J7">
-        <v>-0.05671482075976458</v>
+        <v>-0.0929889298892989</v>
       </c>
       <c r="K7">
-        <v>-33.8</v>
+        <v>-10.2</v>
       </c>
       <c r="L7">
-        <v>-0.1808453718566078</v>
+        <v>-0.07527675276752767</v>
       </c>
       <c r="M7">
         <v>-0</v>
@@ -1279,73 +1276,73 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>1.25</v>
+        <v>11.1</v>
       </c>
       <c r="V7">
-        <v>0.004485109436670255</v>
+        <v>0.02958422174840085</v>
       </c>
       <c r="W7">
-        <v>-0.1910684002261164</v>
+        <v>-0.07147862648913805</v>
       </c>
       <c r="X7">
-        <v>0.078713656927286</v>
+        <v>0.07063238429349135</v>
       </c>
       <c r="Y7">
-        <v>-0.2697820571534024</v>
+        <v>-0.1421110107826294</v>
       </c>
       <c r="Z7">
-        <v>0.7258872602707805</v>
+        <v>0.6138165345413363</v>
       </c>
       <c r="AA7">
-        <v>-0.0411685658580539</v>
+        <v>-0.05707814269535674</v>
       </c>
       <c r="AB7">
-        <v>0.068380975321766</v>
+        <v>0.05990632318001283</v>
       </c>
       <c r="AC7">
-        <v>-0.1095495411798199</v>
+        <v>-0.1169844658753696</v>
       </c>
       <c r="AD7">
-        <v>79.3</v>
+        <v>101.7</v>
       </c>
       <c r="AE7">
         <v>0</v>
       </c>
       <c r="AF7">
-        <v>79.3</v>
+        <v>101.7</v>
       </c>
       <c r="AG7">
-        <v>78.05</v>
+        <v>90.60000000000001</v>
       </c>
       <c r="AH7">
-        <v>0.2215083798882682</v>
+        <v>0.2132522541413294</v>
       </c>
       <c r="AI7">
-        <v>0.3572072072072072</v>
+        <v>0.4357326478149101</v>
       </c>
       <c r="AJ7">
-        <v>0.218780658724597</v>
+        <v>0.1945040790038643</v>
       </c>
       <c r="AK7">
-        <v>0.3535673839184598</v>
+        <v>0.407557354925776</v>
       </c>
       <c r="AL7">
-        <v>4.03</v>
+        <v>3.28</v>
       </c>
       <c r="AM7">
-        <v>4.03</v>
+        <v>3.28</v>
       </c>
       <c r="AN7">
-        <v>62.44094488188976</v>
+        <v>-97.78846153846153</v>
       </c>
       <c r="AO7">
-        <v>-2.630272952853598</v>
+        <v>-3.841463414634147</v>
       </c>
       <c r="AP7">
-        <v>61.45669291338582</v>
+        <v>-87.11538461538463</v>
       </c>
       <c r="AQ7">
-        <v>-2.630272952853598</v>
+        <v>-3.841463414634147</v>
       </c>
     </row>
     <row r="8">
@@ -1365,118 +1362,115 @@
         </is>
       </c>
       <c r="D8">
-        <v>-0.0584</v>
+        <v>-0.122</v>
       </c>
       <c r="G8">
-        <v>0.1068664169787765</v>
+        <v>0.01043103448275862</v>
       </c>
       <c r="H8">
-        <v>0.1068664169787765</v>
+        <v>0.01043103448275862</v>
       </c>
       <c r="I8">
-        <v>-0.136079900124844</v>
+        <v>-0.1179310344827586</v>
       </c>
       <c r="J8">
-        <v>-0.136079900124844</v>
+        <v>-0.1179310344827586</v>
       </c>
       <c r="K8">
-        <v>-13.1</v>
+        <v>-9.27</v>
       </c>
       <c r="L8">
-        <v>-0.1635455680399501</v>
+        <v>-0.1598275862068965</v>
       </c>
       <c r="M8">
-        <v>1.84</v>
+        <v>-0</v>
       </c>
       <c r="N8">
-        <v>0.01606986899563319</v>
+        <v>-0</v>
       </c>
       <c r="O8">
-        <v>-0.1404580152671756</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>1.84</v>
+        <v>-0</v>
       </c>
       <c r="Q8">
-        <v>0.01606986899563319</v>
+        <v>-0</v>
       </c>
       <c r="R8">
-        <v>-0.1404580152671756</v>
+        <v>0</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
       <c r="U8">
-        <v>9.32</v>
+        <v>13.3</v>
       </c>
       <c r="V8">
-        <v>0.08139737991266376</v>
+        <v>0.0528196981731533</v>
       </c>
       <c r="W8">
-        <v>-0.1323232323232323</v>
+        <v>-0.1081680280046674</v>
       </c>
       <c r="X8">
-        <v>0.07313187417919365</v>
+        <v>0.06428270869239133</v>
       </c>
       <c r="Y8">
-        <v>-0.205455106502426</v>
+        <v>-0.1724507366970588</v>
       </c>
       <c r="Z8">
-        <v>0.6726005542027038</v>
+        <v>0.5411457361448031</v>
       </c>
       <c r="AA8">
-        <v>-0.09152741623981862</v>
+        <v>-0.06381787646949057</v>
       </c>
       <c r="AB8">
-        <v>0.06747775044820097</v>
+        <v>0.05980015318660873</v>
       </c>
       <c r="AC8">
-        <v>-0.1590051666880196</v>
+        <v>-0.1236180296560993</v>
       </c>
       <c r="AD8">
-        <v>16.1</v>
+        <v>28.6</v>
       </c>
       <c r="AE8">
         <v>0</v>
       </c>
       <c r="AF8">
-        <v>16.1</v>
+        <v>28.6</v>
       </c>
       <c r="AG8">
-        <v>6.780000000000001</v>
+        <v>15.3</v>
       </c>
       <c r="AH8">
-        <v>0.1232771822358346</v>
+        <v>0.1019971469329529</v>
       </c>
       <c r="AI8">
-        <v>0.1581532416502947</v>
+        <v>0.2718631178707225</v>
       </c>
       <c r="AJ8">
-        <v>0.05590369393139843</v>
+        <v>0.05728191688506177</v>
       </c>
       <c r="AK8">
-        <v>0.07331314878892735</v>
+        <v>0.1664853101196953</v>
       </c>
       <c r="AL8">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AM8">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AN8">
-        <v>-2.613636363636364</v>
+        <v>-12.06751054852321</v>
       </c>
       <c r="AO8">
-        <v>-10</v>
+        <v>-6.84</v>
       </c>
       <c r="AP8">
-        <v>-1.100649350649351</v>
+        <v>-6.455696202531645</v>
       </c>
       <c r="AQ8">
-        <v>-10</v>
+        <v>-6.84</v>
       </c>
     </row>
   </sheetData>
